--- a/doc/source/webappvpc/vars.xlsx
+++ b/doc/source/webappvpc/vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/GitHub/tabular-terraform/webappvpc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529B6B41-3DCC-A14B-B776-025B2AB95FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DED164-D469-6542-B28D-40BDB31B905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1000" windowWidth="21640" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="1240" windowWidth="21640" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="63" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="154">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -480,7 +480,19 @@
     <t xml:space="preserve">"r006-5f9568ae-792e-47e1-a710-5538b2bdfca7" </t>
   </si>
   <si>
-    <t>Define OS image for compute instances (ubuntu-20-04-amd64)</t>
+    <t>"r006-bf0495b9-648e-465f-ab7d-f5e048bd123d"</t>
+  </si>
+  <si>
+    <t>Define OS image for compute instances (ubuntu-16-04-amd64)</t>
+  </si>
+  <si>
+    <t>ubuntu-16-04-amd64</t>
+  </si>
+  <si>
+    <t>ubuntu-22-04-amd64</t>
+  </si>
+  <si>
+    <t>"r006-b5427052-bf0d-400a-a55c-e70894560b96"</t>
   </si>
 </sst>
 </file>
@@ -843,9 +855,9 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E15" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E17" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C17">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="5">
@@ -1124,7 +1136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512DA79-E398-A147-BE1C-513651119830}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1440,11 +1454,11 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3461,10 +3475,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D5780C-0FB3-8641-AF0A-2663D9C6928D}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3576,12 +3590,12 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3589,10 +3603,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
@@ -3602,12 +3616,12 @@
         <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3615,10 +3629,10 @@
         <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3628,10 +3642,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3641,31 +3655,57 @@
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/source/webappvpc/vars.xlsx
+++ b/doc/source/webappvpc/vars.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Documents/GitHub/tabular-terraform/webappvpc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DED164-D469-6542-B28D-40BDB31B905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529B6B41-3DCC-A14B-B776-025B2AB95FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="1240" windowWidth="21640" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9120" yWindow="1000" windowWidth="21640" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="63" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="150">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -480,19 +480,7 @@
     <t xml:space="preserve">"r006-5f9568ae-792e-47e1-a710-5538b2bdfca7" </t>
   </si>
   <si>
-    <t>"r006-bf0495b9-648e-465f-ab7d-f5e048bd123d"</t>
-  </si>
-  <si>
-    <t>Define OS image for compute instances (ubuntu-16-04-amd64)</t>
-  </si>
-  <si>
-    <t>ubuntu-16-04-amd64</t>
-  </si>
-  <si>
-    <t>ubuntu-22-04-amd64</t>
-  </si>
-  <si>
-    <t>"r006-b5427052-bf0d-400a-a55c-e70894560b96"</t>
+    <t>Define OS image for compute instances (ubuntu-20-04-amd64)</t>
   </si>
 </sst>
 </file>
@@ -855,9 +843,9 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:E17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A1:E17" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BA6E446B-230B-5546-81E2-5A1E4F3CD207}" name="Table32102" displayName="Table32102" ref="A1:E15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E15" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C15">
     <sortCondition ref="B1"/>
   </sortState>
   <tableColumns count="5">
@@ -1136,9 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E512DA79-E398-A147-BE1C-513651119830}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1454,11 +1440,11 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -3475,10 +3461,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D5780C-0FB3-8641-AF0A-2663D9C6928D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3590,12 +3576,12 @@
         <v>103</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3603,10 +3589,10 @@
         <v>103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>53</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1"/>
@@ -3616,12 +3602,12 @@
         <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3629,10 +3615,10 @@
         <v>103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>151</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -3642,10 +3628,10 @@
         <v>103</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -3655,57 +3641,31 @@
         <v>103</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>148</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
